--- a/Form2.xlsx
+++ b/Form2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3465" uniqueCount="615">
   <si>
     <t>type</t>
   </si>
@@ -1784,15 +1784,6 @@
   </si>
   <si>
     <t xml:space="preserve">selected(${crop_stage}, '40') </t>
-  </si>
-  <si>
-    <t>Visit No.</t>
-  </si>
-  <si>
-    <t>RICEPRE_Crop_Health_2014WS</t>
-  </si>
-  <si>
-    <t>RICEPRE_CropHealth_2014WS</t>
   </si>
   <si>
     <t>collector_name</t>
@@ -1911,6 +1902,12 @@
   </si>
   <si>
     <t>Location name or ID</t>
+  </si>
+  <si>
+    <t>Visit Number</t>
+  </si>
+  <si>
+    <t>IRRI_In_Field_Crop_Health_Survey</t>
   </si>
 </sst>
 </file>
@@ -2809,7 +2806,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2944,10 +2941,10 @@
         <v>508</v>
       </c>
       <c r="C6" s="54" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="N6" s="52"/>
     </row>
@@ -3004,10 +3001,10 @@
         <v>19</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D11" s="6"/>
       <c r="F11" s="6"/>
@@ -3021,10 +3018,10 @@
         <v>19</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D12" s="6"/>
       <c r="F12" s="6"/>
@@ -3077,7 +3074,7 @@
         <v>227</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>585</v>
+        <v>613</v>
       </c>
       <c r="D16" s="62"/>
       <c r="F16" s="62"/>
@@ -14486,7 +14483,7 @@
   <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
@@ -14578,7 +14575,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12.75" customHeight="1">
@@ -14589,7 +14586,7 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="12.75" customHeight="1">
@@ -14600,7 +14597,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="12.75" customHeight="1">
@@ -14611,7 +14608,7 @@
         <v>40</v>
       </c>
       <c r="C9" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="12.75" customHeight="1">
@@ -14622,7 +14619,7 @@
         <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="12.75" customHeight="1">
@@ -14633,7 +14630,7 @@
         <v>60</v>
       </c>
       <c r="C11" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="12.75" customHeight="1">
@@ -14644,7 +14641,7 @@
         <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="12.75" customHeight="1">
@@ -14655,7 +14652,7 @@
         <v>80</v>
       </c>
       <c r="C13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="12.75" customHeight="1">
@@ -14666,7 +14663,7 @@
         <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="12.75" customHeight="1">
@@ -14677,7 +14674,7 @@
         <v>100</v>
       </c>
       <c r="C15" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="12.75" customHeight="1">
@@ -15224,10 +15221,10 @@
         <v>346</v>
       </c>
       <c r="B65" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C65" s="64" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="12.75" customHeight="1">
@@ -15257,10 +15254,10 @@
         <v>346</v>
       </c>
       <c r="B68" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C68" s="64" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="12.75" customHeight="1">
@@ -15301,10 +15298,10 @@
         <v>346</v>
       </c>
       <c r="B72" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C72" s="64" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="12.75" customHeight="1">
@@ -15345,10 +15342,10 @@
         <v>346</v>
       </c>
       <c r="B76" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C76" s="64" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="12.75" customHeight="1">
@@ -15367,10 +15364,10 @@
         <v>346</v>
       </c>
       <c r="B78" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C78" s="64" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="12.75" customHeight="1">
@@ -15466,10 +15463,10 @@
         <v>346</v>
       </c>
       <c r="B87" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C87" s="64" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.75" customHeight="1">
@@ -15711,7 +15708,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -15730,10 +15727,10 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>586</v>
+        <v>614</v>
       </c>
       <c r="B2" t="s">
-        <v>587</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/Form2.xlsx
+++ b/Form2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="25306"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="272"/>
@@ -1864,17 +1864,17 @@
     <t>Crop Health Survey Form 2</t>
   </si>
   <si>
+    <t>Location name or ID</t>
+  </si>
+  <si>
+    <t>Visit Number</t>
+  </si>
+  <si>
+    <t>IRRI_In_Field_Crop_Health_Survey</t>
+  </si>
+  <si>
     <r>
-      <t>This form is used for data collection using the IRRI publication, "A SURVEY PORTFOLIO TO CHARACTERIZE PEST INJURIES AND PRODUCTION SITUATION IN RICE"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">.
+      <t xml:space="preserve">This form is used for data collection as described in the IRRI publication, "A SURVEY PORTFOLIO TO CHARACTERIZE PEST INJURIES AND PRODUCTION SITUATION IN RICE".
 What to bring:
 1. This device
 2. Field clothes and boots
@@ -1900,21 +1900,12 @@
       <t xml:space="preserve"> Make sure the battery is fully charged and GPS is turned on for the assessment.</t>
     </r>
   </si>
-  <si>
-    <t>Location name or ID</t>
-  </si>
-  <si>
-    <t>Visit Number</t>
-  </si>
-  <si>
-    <t>IRRI_In_Field_Crop_Health_Survey</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1986,12 +1977,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2202,7 +2187,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -2359,7 +2344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="22" borderId="0" xfId="9" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2374,13 +2359,13 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" xfId="11" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2395,7 +2380,7 @@
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1">
@@ -2404,7 +2389,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="20% - Accent1 2" xfId="4"/>
@@ -2806,7 +2791,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -2944,7 +2929,7 @@
         <v>610</v>
       </c>
       <c r="D6" s="66" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="N6" s="52"/>
     </row>
@@ -3021,7 +3006,7 @@
         <v>587</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D12" s="6"/>
       <c r="F12" s="6"/>
@@ -3074,7 +3059,7 @@
         <v>227</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D16" s="62"/>
       <c r="F16" s="62"/>
@@ -15727,10 +15712,10 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
